--- a/doc/import-person/ข้อมูลบุคลากรล่าสุด.xlsx
+++ b/doc/import-person/ข้อมูลบุคลากรล่าสุด.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tasillapa\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -570,84 +575,6 @@
     <t>20,040</t>
   </si>
   <si>
-    <t>05 พ.ย. 27</t>
-  </si>
-  <si>
-    <t>01 มิ.ย. 33</t>
-  </si>
-  <si>
-    <t>14 ก.ย. 42</t>
-  </si>
-  <si>
-    <t>10 เม.ย. 38</t>
-  </si>
-  <si>
-    <t>01 ก.ค. 42</t>
-  </si>
-  <si>
-    <t>02 ก.ค. 33</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 39</t>
-  </si>
-  <si>
-    <t>04 ส.ค. 36</t>
-  </si>
-  <si>
-    <t>01 เม.ย. 26</t>
-  </si>
-  <si>
-    <t>02 พ.ค. 32</t>
-  </si>
-  <si>
-    <t>03 มิ.ย. 34</t>
-  </si>
-  <si>
-    <t>01 ก.ค. 31</t>
-  </si>
-  <si>
-    <t>03 มิ.ย. 39</t>
-  </si>
-  <si>
-    <t>16 ธ.ค. 35</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 63</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 70</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 76</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 67</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 66</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 68</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 60</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 64</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 72</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 59</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 69</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 62</t>
-  </si>
-  <si>
     <t>3200100375513</t>
   </si>
   <si>
@@ -888,33 +815,6 @@
     <t>นักกีฎวิทยากลุ่มงานบริหารทั่วไป</t>
   </si>
   <si>
-    <t>01 ต.ค. 65</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 85</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 89</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 95</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 88</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 87</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 86</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 90</t>
-  </si>
-  <si>
-    <t>01 ต.ค. 93</t>
-  </si>
-  <si>
     <t>13,660</t>
   </si>
   <si>
@@ -951,47 +851,152 @@
     <t>20,020</t>
   </si>
   <si>
-    <t>10 พ.ย. 48</t>
-  </si>
-  <si>
-    <t>01 พ.ย. 48</t>
-  </si>
-  <si>
-    <t>01 เม.ย. 49</t>
-  </si>
-  <si>
-    <t>18 ม.ค. 51</t>
-  </si>
-  <si>
-    <t>03 ม.ค. 56</t>
-  </si>
-  <si>
-    <t>15 ก.ค. 57</t>
-  </si>
-  <si>
-    <t>01 เม.ย. 53</t>
-  </si>
-  <si>
-    <t>01 ส.ค. 49</t>
-  </si>
-  <si>
-    <t>04 ส.ค. 58</t>
-  </si>
-  <si>
-    <t>17 ส.ค. 58</t>
-  </si>
-  <si>
-    <t>13 ก.ย. 55</t>
-  </si>
-  <si>
-    <t>01 ก.ค. 57</t>
+    <t>05 พ.ย. 2527</t>
+  </si>
+  <si>
+    <t>01 มิ.ย. 2533</t>
+  </si>
+  <si>
+    <t>14 ก.ย. 2542</t>
+  </si>
+  <si>
+    <t>10 เม.ย. 2538</t>
+  </si>
+  <si>
+    <t>01 ก.ค. 2542</t>
+  </si>
+  <si>
+    <t>02 ก.ค. 2533</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2539</t>
+  </si>
+  <si>
+    <t>04 ส.ค. 2536</t>
+  </si>
+  <si>
+    <t>01 เม.ย. 2526</t>
+  </si>
+  <si>
+    <t>02 พ.ค. 2532</t>
+  </si>
+  <si>
+    <t>03 มิ.ย. 2534</t>
+  </si>
+  <si>
+    <t>01 ก.ค. 2531</t>
+  </si>
+  <si>
+    <t>03 มิ.ย. 2539</t>
+  </si>
+  <si>
+    <t>16 ธ.ค. 2535</t>
+  </si>
+  <si>
+    <t>10 พ.ย. 2548</t>
+  </si>
+  <si>
+    <t>01 พ.ย. 2548</t>
+  </si>
+  <si>
+    <t>01 เม.ย. 2549</t>
+  </si>
+  <si>
+    <t>18 ม.ค. 2551</t>
+  </si>
+  <si>
+    <t>03 ม.ค. 2556</t>
+  </si>
+  <si>
+    <t>15 ก.ค. 2557</t>
+  </si>
+  <si>
+    <t>01 เม.ย. 2553</t>
+  </si>
+  <si>
+    <t>01 ส.ค. 2549</t>
+  </si>
+  <si>
+    <t>04 ส.ค. 2558</t>
+  </si>
+  <si>
+    <t>17 ส.ค. 2558</t>
+  </si>
+  <si>
+    <t>13 ก.ย. 2555</t>
+  </si>
+  <si>
+    <t>01 ก.ค. 2557</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2563</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2570</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2576</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2567</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2566</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2568</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2560</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2564</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2572</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2559</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2569</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2562</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2565</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2585</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2589</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2595</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2588</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2587</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2586</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2590</t>
+  </si>
+  <si>
+    <t>01 ต.ค. 2593</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,25 +1011,31 @@
       <charset val="222"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
+      <b/>
+      <sz val="16"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FF000000"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
@@ -1050,50 +1061,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1363,7 +1377,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1373,89 +1387,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="K34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="23.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="24.09765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.8984375" style="1"/>
+    <col min="4" max="4" width="8.875" style="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="35" style="1" customWidth="1"/>
     <col min="9" max="10" width="16.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.59765625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.59765625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="33.8984375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.3984375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.69921875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.19921875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12.8984375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.8984375" style="1"/>
+    <col min="11" max="11" width="16.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="33.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.65">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="10">
         <v>1097</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -1492,21 +1506,21 @@
       <c r="N2" s="15">
         <v>40270</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="Q2" s="16"/>
+      <c r="Q2" s="17"/>
       <c r="S2" s="4"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="10">
         <v>1114</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -1543,21 +1557,21 @@
       <c r="N3" s="15">
         <v>57290</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="Q3" s="16"/>
+      <c r="Q3" s="17"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="10">
         <v>1129</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -1594,21 +1608,21 @@
       <c r="N4" s="15">
         <v>56020</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="17"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="10">
         <v>1127</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -1645,21 +1659,21 @@
       <c r="N5" s="15">
         <v>33830</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="Q5" s="16"/>
+      <c r="Q5" s="17"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="10">
         <v>1175</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -1696,21 +1710,21 @@
       <c r="N6" s="15">
         <v>50340</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="16" t="s">
         <v>119</v>
       </c>
       <c r="Q6" s="11"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="10">
         <v>1105</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -1747,21 +1761,21 @@
       <c r="N7" s="15">
         <v>43300</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="16" t="s">
         <v>121</v>
       </c>
       <c r="Q7" s="11"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="10">
         <v>3607</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -1798,21 +1812,21 @@
       <c r="N8" s="15">
         <v>35530</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="16" t="s">
         <v>122</v>
       </c>
       <c r="Q8" s="11"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="10">
         <v>1185</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -1849,21 +1863,21 @@
       <c r="N9" s="15">
         <v>26340</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="16" t="s">
         <v>123</v>
       </c>
       <c r="Q9" s="11"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A10" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="10">
         <v>1187</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -1900,21 +1914,21 @@
       <c r="N10" s="15">
         <v>22750</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="16" t="s">
         <v>124</v>
       </c>
       <c r="Q10" s="11"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A11" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="10">
         <v>1191</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1951,21 +1965,21 @@
       <c r="N11" s="15">
         <v>43120</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="16" t="s">
         <v>125</v>
       </c>
       <c r="Q11" s="11"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A12" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="10">
         <v>1197</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -2002,21 +2016,21 @@
       <c r="N12" s="15">
         <v>44720</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" s="16" t="s">
         <v>126</v>
       </c>
       <c r="Q12" s="11"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -2051,21 +2065,21 @@
       <c r="N13" s="15">
         <v>17270</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="16" t="s">
         <v>119</v>
       </c>
       <c r="Q13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A14" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -2100,21 +2114,21 @@
       <c r="N14" s="15">
         <v>17270</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="16" t="s">
         <v>127</v>
       </c>
       <c r="Q14" s="11"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -2149,21 +2163,21 @@
       <c r="N15" s="15">
         <v>19100</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="16" t="s">
         <v>128</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A16" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -2194,21 +2208,21 @@
       <c r="N16" s="15">
         <v>20650</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="P16" s="16" t="s">
         <v>129</v>
       </c>
       <c r="Q16" s="11"/>
       <c r="S16" s="4"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="10">
         <v>166</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -2243,21 +2257,21 @@
       <c r="N17" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="O17" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>197</v>
+      <c r="O17" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>301</v>
       </c>
       <c r="Q17" s="11"/>
       <c r="S17" s="4"/>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A18" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="10" t="s">
         <v>147</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -2292,21 +2306,21 @@
       <c r="N18" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>198</v>
+      <c r="O18" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>302</v>
       </c>
       <c r="Q18" s="11"/>
       <c r="S18" s="4"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A19" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -2341,21 +2355,21 @@
       <c r="N19" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>199</v>
+      <c r="O19" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="Q19" s="11"/>
       <c r="S19" s="4"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A20" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>149</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -2390,21 +2404,21 @@
       <c r="N20" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="O20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>200</v>
+      <c r="O20" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>304</v>
       </c>
       <c r="Q20" s="11"/>
       <c r="S20" s="4"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A21" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>150</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -2439,21 +2453,21 @@
       <c r="N21" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="O21" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>201</v>
+      <c r="O21" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="Q21" s="11"/>
       <c r="S21" s="4"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A22" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>151</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -2488,21 +2502,21 @@
       <c r="N22" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="O22" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>202</v>
+      <c r="O22" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>306</v>
       </c>
       <c r="Q22" s="11"/>
       <c r="S22" s="4"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A23" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>152</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -2537,21 +2551,21 @@
       <c r="N23" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>203</v>
+      <c r="O23" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>307</v>
       </c>
       <c r="Q23" s="11"/>
       <c r="S23" s="4"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A24" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>153</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -2586,21 +2600,21 @@
       <c r="N24" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>204</v>
+      <c r="O24" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>308</v>
       </c>
       <c r="Q24" s="11"/>
       <c r="S24" s="4"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A25" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>154</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -2635,21 +2649,21 @@
       <c r="N25" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="O25" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>201</v>
+      <c r="O25" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="Q25" s="11"/>
       <c r="S25" s="4"/>
       <c r="T25" s="5"/>
     </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A26" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>155</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -2662,7 +2676,7 @@
         <v>136</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="12" t="s">
@@ -2684,21 +2698,21 @@
       <c r="N26" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="O26" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>200</v>
+      <c r="O26" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>304</v>
       </c>
       <c r="Q26" s="11"/>
       <c r="S26" s="4"/>
       <c r="T26" s="5"/>
     </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A27" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>156</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -2733,21 +2747,21 @@
       <c r="N27" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>205</v>
+      <c r="O27" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>309</v>
       </c>
       <c r="Q27" s="11"/>
       <c r="S27" s="4"/>
       <c r="T27" s="5"/>
     </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A28" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>157</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -2782,19 +2796,19 @@
       <c r="N28" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="O28" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>206</v>
+      <c r="O28" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="P28" s="16" t="s">
+        <v>310</v>
       </c>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A29" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>158</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -2829,19 +2843,19 @@
       <c r="N29" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="O29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>207</v>
+      <c r="O29" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="P29" s="16" t="s">
+        <v>311</v>
       </c>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A30" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>159</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -2876,20 +2890,20 @@
       <c r="N30" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="O30" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>208</v>
+      <c r="O30" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="P30" s="16" t="s">
+        <v>312</v>
       </c>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>266</v>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A31" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>16</v>
@@ -2898,14 +2912,14 @@
         <v>17</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>46</v>
@@ -2913,595 +2927,651 @@
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="M31" s="11" t="s">
         <v>23</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>200</v>
+        <v>263</v>
+      </c>
+      <c r="O31" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="P31" s="16" t="s">
+        <v>304</v>
       </c>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C32" s="1" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="A32" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>284</v>
+        <v>223</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18" t="s">
+        <v>258</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="M32" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q32" s="18"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="A33" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>284</v>
+        <v>210</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18" t="s">
+        <v>258</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="M33" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q33" s="18"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="A34" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>284</v>
+        <v>211</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18" t="s">
+        <v>258</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="M34" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="P34" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q34" s="18"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="A35" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>284</v>
+        <v>212</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18" t="s">
+        <v>258</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="2" t="s">
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="M35" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q35" s="18"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="A36" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>285</v>
+        <v>213</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="2" t="s">
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="M36" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q36" s="18"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="A37" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>286</v>
+        <v>214</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="M37" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q37" s="18"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="A38" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>287</v>
+        <v>222</v>
+      </c>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18" t="s">
+        <v>261</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q38" s="18"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="A39" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>287</v>
+        <v>215</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18" t="s">
+        <v>261</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="P39" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q39" s="18"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="A40" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>288</v>
+        <v>216</v>
+      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="M40" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q40" s="18"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="A41" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>288</v>
+        <v>221</v>
+      </c>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q41" s="18"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="A42" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="I42" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="I42" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="M42" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q42" s="18"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="A43" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="I43" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="I43" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="M43" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="P43" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q43" s="18"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="A44" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="I44" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="I44" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="O44" s="2" t="s">
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="M44" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="P44" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="P44" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="Q44" s="18"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="A45" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="I45" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="I45" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="O45" s="2" t="s">
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="M45" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="P45" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="P45" s="2" t="s">
-        <v>297</v>
-      </c>
+      <c r="Q45" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
